--- a/documents/Beispiel Zeitplan.xlsx
+++ b/documents/Beispiel Zeitplan.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCD50A5-57EC-4545-9782-D0B904B4299B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC38E94A-02BC-4808-A225-2CCD157FD05B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -509,6 +512,36 @@
     <xf numFmtId="164" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -524,39 +557,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -836,196 +839,198 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:AT64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.109375" customWidth="1"/>
-    <col min="2" max="2" width="3.44140625" customWidth="1"/>
-    <col min="3" max="3" width="40.88671875" customWidth="1"/>
-    <col min="4" max="6" width="4.6640625" customWidth="1"/>
-    <col min="7" max="46" width="2.21875" customWidth="1"/>
+    <col min="1" max="1" width="3.08984375" customWidth="1"/>
+    <col min="2" max="2" width="3.453125" customWidth="1"/>
+    <col min="3" max="3" width="40.90625" customWidth="1"/>
+    <col min="4" max="6" width="4.6328125" customWidth="1"/>
+    <col min="7" max="46" width="2.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:46" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:46" x14ac:dyDescent="0.35">
       <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="33" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="3:46" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:46" x14ac:dyDescent="0.35">
       <c r="C3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-    </row>
-    <row r="4" spans="3:46" x14ac:dyDescent="0.3">
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+    </row>
+    <row r="4" spans="3:46" x14ac:dyDescent="0.35">
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="42" t="s">
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="41" t="s">
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41" t="s">
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41" t="s">
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41" t="s">
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41" t="s">
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="41" t="s">
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="AF4" s="41"/>
-      <c r="AG4" s="41"/>
-      <c r="AH4" s="41"/>
-      <c r="AI4" s="41" t="s">
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="AJ4" s="41"/>
-      <c r="AK4" s="41"/>
-      <c r="AL4" s="41"/>
-      <c r="AM4" s="41" t="s">
+      <c r="AJ4" s="35"/>
+      <c r="AK4" s="35"/>
+      <c r="AL4" s="35"/>
+      <c r="AM4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="AN4" s="41"/>
-      <c r="AO4" s="41"/>
-      <c r="AP4" s="41"/>
-      <c r="AQ4" s="41" t="s">
+      <c r="AN4" s="35"/>
+      <c r="AO4" s="35"/>
+      <c r="AP4" s="35"/>
+      <c r="AQ4" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="AR4" s="41"/>
-      <c r="AS4" s="41"/>
-      <c r="AT4" s="41"/>
-    </row>
-    <row r="5" spans="3:46" x14ac:dyDescent="0.3">
+      <c r="AR4" s="35"/>
+      <c r="AS4" s="35"/>
+      <c r="AT4" s="35"/>
+    </row>
+    <row r="5" spans="3:46" x14ac:dyDescent="0.35">
       <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="46" t="s">
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44" t="s">
+      <c r="H5" s="32"/>
+      <c r="I5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44" t="s">
+      <c r="J5" s="32"/>
+      <c r="K5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44" t="s">
+      <c r="L5" s="32"/>
+      <c r="M5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44" t="s">
+      <c r="N5" s="32"/>
+      <c r="O5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44" t="s">
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44" t="s">
+      <c r="R5" s="32"/>
+      <c r="S5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="T5" s="44"/>
-      <c r="U5" s="44" t="s">
+      <c r="T5" s="32"/>
+      <c r="U5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="V5" s="44"/>
-      <c r="W5" s="44" t="s">
+      <c r="V5" s="32"/>
+      <c r="W5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="44" t="s">
+      <c r="X5" s="32"/>
+      <c r="Y5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="Z5" s="44"/>
-      <c r="AA5" s="44" t="s">
+      <c r="Z5" s="32"/>
+      <c r="AA5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="AB5" s="44"/>
-      <c r="AC5" s="44" t="s">
+      <c r="AB5" s="32"/>
+      <c r="AC5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="AD5" s="44"/>
-      <c r="AE5" s="44" t="s">
+      <c r="AD5" s="32"/>
+      <c r="AE5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="AF5" s="44"/>
-      <c r="AG5" s="44" t="s">
+      <c r="AF5" s="32"/>
+      <c r="AG5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="AH5" s="44"/>
-      <c r="AI5" s="44" t="s">
+      <c r="AH5" s="32"/>
+      <c r="AI5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="AJ5" s="44"/>
-      <c r="AK5" s="44" t="s">
+      <c r="AJ5" s="32"/>
+      <c r="AK5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="AL5" s="44"/>
-      <c r="AM5" s="44" t="s">
+      <c r="AL5" s="32"/>
+      <c r="AM5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="AN5" s="44"/>
-      <c r="AO5" s="44" t="s">
+      <c r="AN5" s="32"/>
+      <c r="AO5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="AP5" s="44"/>
-      <c r="AQ5" s="44" t="s">
+      <c r="AP5" s="32"/>
+      <c r="AQ5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="AR5" s="44"/>
-      <c r="AS5" s="44" t="s">
+      <c r="AR5" s="32"/>
+      <c r="AS5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="AT5" s="44"/>
-    </row>
-    <row r="6" spans="3:46" x14ac:dyDescent="0.3">
+      <c r="AT5" s="32"/>
+    </row>
+    <row r="6" spans="3:46" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1073,8 +1078,8 @@
       <c r="AS6" s="2"/>
       <c r="AT6" s="3"/>
     </row>
-    <row r="7" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="39" t="s">
+    <row r="7" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="37">
@@ -1132,8 +1137,8 @@
       <c r="AS7" s="10"/>
       <c r="AT7" s="11"/>
     </row>
-    <row r="8" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="39"/>
+    <row r="8" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="36"/>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
       <c r="F8" s="38"/>
@@ -1180,8 +1185,8 @@
       <c r="AS8" s="14"/>
       <c r="AT8" s="15"/>
     </row>
-    <row r="9" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="39" t="s">
+    <row r="9" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="36" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="37">
@@ -1239,8 +1244,8 @@
       <c r="AS9" s="18"/>
       <c r="AT9" s="19"/>
     </row>
-    <row r="10" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="39"/>
+    <row r="10" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="36"/>
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
       <c r="F10" s="38"/>
@@ -1289,8 +1294,8 @@
       <c r="AS10" s="14"/>
       <c r="AT10" s="15"/>
     </row>
-    <row r="11" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="39" t="s">
+    <row r="11" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="36" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="37">
@@ -1348,8 +1353,8 @@
       <c r="AS11" s="18"/>
       <c r="AT11" s="19"/>
     </row>
-    <row r="12" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="39"/>
+    <row r="12" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="36"/>
       <c r="D12" s="38"/>
       <c r="E12" s="38"/>
       <c r="F12" s="38"/>
@@ -1396,8 +1401,8 @@
       <c r="AS12" s="14"/>
       <c r="AT12" s="15"/>
     </row>
-    <row r="13" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="39" t="s">
+    <row r="13" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="36" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="37">
@@ -1455,8 +1460,8 @@
       <c r="AS13" s="18"/>
       <c r="AT13" s="19"/>
     </row>
-    <row r="14" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="39"/>
+    <row r="14" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="36"/>
       <c r="D14" s="38"/>
       <c r="E14" s="38"/>
       <c r="F14" s="38"/>
@@ -1503,8 +1508,8 @@
       <c r="AS14" s="14"/>
       <c r="AT14" s="15"/>
     </row>
-    <row r="15" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="39" t="s">
+    <row r="15" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="36" t="s">
         <v>46</v>
       </c>
       <c r="D15" s="37">
@@ -1564,8 +1569,8 @@
       <c r="AS15" s="18"/>
       <c r="AT15" s="19"/>
     </row>
-    <row r="16" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="39"/>
+    <row r="16" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="36"/>
       <c r="D16" s="38"/>
       <c r="E16" s="38"/>
       <c r="F16" s="38"/>
@@ -1612,8 +1617,8 @@
       <c r="AS16" s="14"/>
       <c r="AT16" s="15"/>
     </row>
-    <row r="17" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="39" t="s">
+    <row r="17" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="36" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="37">
@@ -1673,8 +1678,8 @@
       <c r="AS17" s="18"/>
       <c r="AT17" s="19"/>
     </row>
-    <row r="18" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="39"/>
+    <row r="18" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="36"/>
       <c r="D18" s="38"/>
       <c r="E18" s="38"/>
       <c r="F18" s="38"/>
@@ -1723,7 +1728,7 @@
       <c r="AS18" s="10"/>
       <c r="AT18" s="11"/>
     </row>
-    <row r="19" spans="3:46" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:46" x14ac:dyDescent="0.35">
       <c r="C19" s="1" t="s">
         <v>22</v>
       </c>
@@ -1771,8 +1776,8 @@
       <c r="AS19" s="26"/>
       <c r="AT19" s="27"/>
     </row>
-    <row r="20" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="40" t="s">
+    <row r="20" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="41" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="37">
@@ -1830,8 +1835,8 @@
       <c r="AS20" s="10"/>
       <c r="AT20" s="11"/>
     </row>
-    <row r="21" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="40"/>
+    <row r="21" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="41"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="38"/>
@@ -1878,8 +1883,8 @@
       <c r="AS21" s="14"/>
       <c r="AT21" s="15"/>
     </row>
-    <row r="22" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="40" t="s">
+    <row r="22" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="41" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="37">
@@ -1937,8 +1942,8 @@
       <c r="AS22" s="18"/>
       <c r="AT22" s="19"/>
     </row>
-    <row r="23" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="40"/>
+    <row r="23" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="41"/>
       <c r="D23" s="38"/>
       <c r="E23" s="38"/>
       <c r="F23" s="38"/>
@@ -1985,8 +1990,8 @@
       <c r="AS23" s="14"/>
       <c r="AT23" s="15"/>
     </row>
-    <row r="24" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="40" t="s">
+    <row r="24" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="41" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="37">
@@ -2044,8 +2049,8 @@
       <c r="AS24" s="18"/>
       <c r="AT24" s="19"/>
     </row>
-    <row r="25" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="40"/>
+    <row r="25" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="41"/>
       <c r="D25" s="38"/>
       <c r="E25" s="38"/>
       <c r="F25" s="38"/>
@@ -2092,8 +2097,8 @@
       <c r="AS25" s="14"/>
       <c r="AT25" s="15"/>
     </row>
-    <row r="26" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="40" t="s">
+    <row r="26" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="41" t="s">
         <v>47</v>
       </c>
       <c r="D26" s="37">
@@ -2151,8 +2156,8 @@
       <c r="AS26" s="18"/>
       <c r="AT26" s="19"/>
     </row>
-    <row r="27" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="40"/>
+    <row r="27" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="41"/>
       <c r="D27" s="38"/>
       <c r="E27" s="38"/>
       <c r="F27" s="38"/>
@@ -2199,8 +2204,8 @@
       <c r="AS27" s="14"/>
       <c r="AT27" s="15"/>
     </row>
-    <row r="28" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="40" t="s">
+    <row r="28" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="41" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="37">
@@ -2258,8 +2263,8 @@
       <c r="AS28" s="18"/>
       <c r="AT28" s="19"/>
     </row>
-    <row r="29" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="40"/>
+    <row r="29" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="41"/>
       <c r="D29" s="38"/>
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
@@ -2306,8 +2311,8 @@
       <c r="AS29" s="14"/>
       <c r="AT29" s="15"/>
     </row>
-    <row r="30" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="40" t="s">
+    <row r="30" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="41" t="s">
         <v>49</v>
       </c>
       <c r="D30" s="37">
@@ -2365,8 +2370,8 @@
       <c r="AS30" s="18"/>
       <c r="AT30" s="19"/>
     </row>
-    <row r="31" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="40"/>
+    <row r="31" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="41"/>
       <c r="D31" s="38"/>
       <c r="E31" s="38"/>
       <c r="F31" s="38"/>
@@ -2413,8 +2418,8 @@
       <c r="AS31" s="14"/>
       <c r="AT31" s="15"/>
     </row>
-    <row r="32" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="40" t="s">
+    <row r="32" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="41" t="s">
         <v>50</v>
       </c>
       <c r="D32" s="37">
@@ -2476,8 +2481,8 @@
       <c r="AS32" s="18"/>
       <c r="AT32" s="19"/>
     </row>
-    <row r="33" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="40"/>
+    <row r="33" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="41"/>
       <c r="D33" s="38"/>
       <c r="E33" s="38"/>
       <c r="F33" s="38"/>
@@ -2528,7 +2533,7 @@
       <c r="AS33" s="10"/>
       <c r="AT33" s="11"/>
     </row>
-    <row r="34" spans="3:46" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:46" x14ac:dyDescent="0.35">
       <c r="C34" s="1" t="s">
         <v>26</v>
       </c>
@@ -2576,8 +2581,8 @@
       <c r="AS34" s="26"/>
       <c r="AT34" s="27"/>
     </row>
-    <row r="35" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="39" t="s">
+    <row r="35" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="36" t="s">
         <v>27</v>
       </c>
       <c r="D35" s="37">
@@ -2639,8 +2644,8 @@
       <c r="AS35" s="10"/>
       <c r="AT35" s="11"/>
     </row>
-    <row r="36" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="39"/>
+    <row r="36" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="36"/>
       <c r="D36" s="38"/>
       <c r="E36" s="38"/>
       <c r="F36" s="38"/>
@@ -2691,8 +2696,8 @@
       <c r="AS36" s="14"/>
       <c r="AT36" s="15"/>
     </row>
-    <row r="37" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="39" t="s">
+    <row r="37" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="36" t="s">
         <v>28</v>
       </c>
       <c r="D37" s="37">
@@ -2750,8 +2755,8 @@
       <c r="AS37" s="18"/>
       <c r="AT37" s="19"/>
     </row>
-    <row r="38" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="39"/>
+    <row r="38" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="36"/>
       <c r="D38" s="38"/>
       <c r="E38" s="38"/>
       <c r="F38" s="38"/>
@@ -2800,8 +2805,8 @@
       <c r="AS38" s="14"/>
       <c r="AT38" s="15"/>
     </row>
-    <row r="39" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="39" t="s">
+    <row r="39" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="36" t="s">
         <v>29</v>
       </c>
       <c r="D39" s="37">
@@ -2861,8 +2866,8 @@
       <c r="AS39" s="18"/>
       <c r="AT39" s="19"/>
     </row>
-    <row r="40" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="39"/>
+    <row r="40" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="36"/>
       <c r="D40" s="38"/>
       <c r="E40" s="38"/>
       <c r="F40" s="38"/>
@@ -2909,8 +2914,8 @@
       <c r="AS40" s="14"/>
       <c r="AT40" s="15"/>
     </row>
-    <row r="41" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="39" t="s">
+    <row r="41" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C41" s="36" t="s">
         <v>30</v>
       </c>
       <c r="D41" s="37">
@@ -2972,8 +2977,8 @@
       <c r="AS41" s="18"/>
       <c r="AT41" s="19"/>
     </row>
-    <row r="42" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="39"/>
+    <row r="42" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C42" s="36"/>
       <c r="D42" s="38"/>
       <c r="E42" s="38"/>
       <c r="F42" s="38"/>
@@ -3024,8 +3029,8 @@
       <c r="AS42" s="14"/>
       <c r="AT42" s="15"/>
     </row>
-    <row r="43" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="39" t="s">
+    <row r="43" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C43" s="36" t="s">
         <v>31</v>
       </c>
       <c r="D43" s="37">
@@ -3085,8 +3090,8 @@
       <c r="AS43" s="18"/>
       <c r="AT43" s="19"/>
     </row>
-    <row r="44" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="39"/>
+    <row r="44" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C44" s="36"/>
       <c r="D44" s="38"/>
       <c r="E44" s="38"/>
       <c r="F44" s="38"/>
@@ -3137,8 +3142,8 @@
       <c r="AS44" s="14"/>
       <c r="AT44" s="15"/>
     </row>
-    <row r="45" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="39" t="s">
+    <row r="45" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C45" s="36" t="s">
         <v>32</v>
       </c>
       <c r="D45" s="37">
@@ -3198,8 +3203,8 @@
       <c r="AS45" s="18"/>
       <c r="AT45" s="19"/>
     </row>
-    <row r="46" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="39"/>
+    <row r="46" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C46" s="36"/>
       <c r="D46" s="38"/>
       <c r="E46" s="38"/>
       <c r="F46" s="38"/>
@@ -3250,8 +3255,8 @@
       <c r="AS46" s="14"/>
       <c r="AT46" s="15"/>
     </row>
-    <row r="47" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="39" t="s">
+    <row r="47" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C47" s="36" t="s">
         <v>33</v>
       </c>
       <c r="D47" s="37">
@@ -3311,8 +3316,8 @@
       <c r="AS47" s="18"/>
       <c r="AT47" s="19"/>
     </row>
-    <row r="48" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="39"/>
+    <row r="48" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C48" s="36"/>
       <c r="D48" s="38"/>
       <c r="E48" s="38"/>
       <c r="F48" s="38"/>
@@ -3363,8 +3368,8 @@
       <c r="AS48" s="14"/>
       <c r="AT48" s="15"/>
     </row>
-    <row r="49" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="39" t="s">
+    <row r="49" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C49" s="36" t="s">
         <v>34</v>
       </c>
       <c r="D49" s="37">
@@ -3424,8 +3429,8 @@
       <c r="AS49" s="18"/>
       <c r="AT49" s="19"/>
     </row>
-    <row r="50" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="39"/>
+    <row r="50" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C50" s="36"/>
       <c r="D50" s="38"/>
       <c r="E50" s="38"/>
       <c r="F50" s="38"/>
@@ -3476,8 +3481,8 @@
       <c r="AS50" s="14"/>
       <c r="AT50" s="15"/>
     </row>
-    <row r="51" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="39" t="s">
+    <row r="51" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C51" s="36" t="s">
         <v>35</v>
       </c>
       <c r="D51" s="37">
@@ -3537,8 +3542,8 @@
       <c r="AS51" s="18"/>
       <c r="AT51" s="19"/>
     </row>
-    <row r="52" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="39"/>
+    <row r="52" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C52" s="36"/>
       <c r="D52" s="38"/>
       <c r="E52" s="38"/>
       <c r="F52" s="38"/>
@@ -3587,8 +3592,8 @@
       <c r="AS52" s="14"/>
       <c r="AT52" s="15"/>
     </row>
-    <row r="53" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="39" t="s">
+    <row r="53" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C53" s="36" t="s">
         <v>36</v>
       </c>
       <c r="D53" s="37">
@@ -3650,8 +3655,8 @@
       <c r="AS53" s="18"/>
       <c r="AT53" s="19"/>
     </row>
-    <row r="54" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="39"/>
+    <row r="54" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C54" s="36"/>
       <c r="D54" s="38"/>
       <c r="E54" s="38"/>
       <c r="F54" s="38"/>
@@ -3702,8 +3707,8 @@
       <c r="AS54" s="14"/>
       <c r="AT54" s="15"/>
     </row>
-    <row r="55" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C55" s="39" t="s">
+    <row r="55" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C55" s="36" t="s">
         <v>37</v>
       </c>
       <c r="D55" s="37">
@@ -3767,8 +3772,8 @@
       <c r="AS55" s="18"/>
       <c r="AT55" s="19"/>
     </row>
-    <row r="56" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="39"/>
+    <row r="56" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C56" s="36"/>
       <c r="D56" s="38"/>
       <c r="E56" s="38"/>
       <c r="F56" s="38"/>
@@ -3825,8 +3830,8 @@
       <c r="AS56" s="14"/>
       <c r="AT56" s="15"/>
     </row>
-    <row r="57" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="39" t="s">
+    <row r="57" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C57" s="36" t="s">
         <v>43</v>
       </c>
       <c r="D57" s="37">
@@ -3892,8 +3897,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="3:46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="39"/>
+    <row r="58" spans="3:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C58" s="36"/>
       <c r="D58" s="38"/>
       <c r="E58" s="38"/>
       <c r="F58" s="38"/>
@@ -3946,7 +3951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="3:46" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:46" x14ac:dyDescent="0.35">
       <c r="C59" s="1" t="s">
         <v>38</v>
       </c>
@@ -3994,12 +3999,12 @@
       <c r="AS59" s="2"/>
       <c r="AT59" s="3"/>
     </row>
-    <row r="60" spans="3:46" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:46" x14ac:dyDescent="0.35">
       <c r="C60" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="3:46" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:46" x14ac:dyDescent="0.35">
       <c r="C62" s="6" t="s">
         <v>41</v>
       </c>
@@ -4009,78 +4014,78 @@
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="8"/>
-      <c r="G62" s="32">
+      <c r="G62" s="42">
         <f>SUM(G7:J7,G9:J9,G11:J11,G13:J13,G15:J15,G17:J17,G20:J20,G22:J22,G24:J24,G26:J26,G28:J28,G30:J30,G32:J32,G35:J35,G37:J37,G39:J39,G41:J41,G43:J43,G45:J45,G47:J47,G49:J49,G51:J51,G53:J53,G55:J55,G57:J57)</f>
         <v>8</v>
       </c>
-      <c r="H62" s="33"/>
-      <c r="I62" s="33"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="32">
+      <c r="H62" s="43"/>
+      <c r="I62" s="43"/>
+      <c r="J62" s="44"/>
+      <c r="K62" s="42">
         <f>SUM(K7:N7,K9:N9,K11:N11,K13:N13,K15:N15,K17:N17,K20:N20,K22:N22,K24:N24,K26:N26,K28:N28,K30:N30,K32:N32,K35:N35,K37:N37,K39:N39,K41:N41,K43:N43,K45:N45,K47:N47,K49:N49,K51:N51,K53:N53,K55:N55,K57:N57)</f>
         <v>8</v>
       </c>
-      <c r="L62" s="33"/>
-      <c r="M62" s="33"/>
-      <c r="N62" s="34"/>
-      <c r="O62" s="32">
+      <c r="L62" s="43"/>
+      <c r="M62" s="43"/>
+      <c r="N62" s="44"/>
+      <c r="O62" s="42">
         <f t="shared" ref="O62:O63" si="12">SUM(O7:R7,O9:R9,O11:R11,O13:R13,O15:R15,O17:R17,O20:R20,O22:R22,O24:R24,O26:R26,O28:R28,O30:R30,O32:R32,O35:R35,O37:R37,O39:R39,O41:R41,O43:R43,O45:R45,O47:R47,O49:R49,O51:R51,O53:R53,O55:R55,O57:R57)</f>
         <v>8</v>
       </c>
-      <c r="P62" s="33"/>
-      <c r="Q62" s="33"/>
-      <c r="R62" s="34"/>
-      <c r="S62" s="32">
+      <c r="P62" s="43"/>
+      <c r="Q62" s="43"/>
+      <c r="R62" s="44"/>
+      <c r="S62" s="42">
         <f>SUM(S7:V7,S9:V9,S11:V11,S13:V13,S15:V15,S17:V17,S20:V20,S22:V22,S24:V24,S26:V26,S28:V28,S30:V30,S32:V32,S35:V35,S37:V37,S39:V39,S41:V41,S43:V43,S45:V45,S47:V47,S49:V49,S51:V51,S53:V53,S55:V55,S57:V57)</f>
         <v>8</v>
       </c>
-      <c r="T62" s="33"/>
-      <c r="U62" s="33"/>
-      <c r="V62" s="34"/>
-      <c r="W62" s="32">
+      <c r="T62" s="43"/>
+      <c r="U62" s="43"/>
+      <c r="V62" s="44"/>
+      <c r="W62" s="42">
         <f>SUM(W7:Z7,W9:Z9,W11:Z11,W13:Z13,W15:Z15,W17:Z17,W20:Z20,W22:Z22,W24:Z24,W26:Z26,W28:Z28,W30:Z30,W32:Z32,W35:Z35,W37:Z37,W39:Z39,W41:Z41,W43:Z43,W45:Z45,W47:Z47,W49:Z49,W51:Z51,W53:Z53,W55:Z55,W57:Z57)</f>
         <v>8</v>
       </c>
-      <c r="X62" s="33"/>
-      <c r="Y62" s="33"/>
-      <c r="Z62" s="34"/>
-      <c r="AA62" s="32">
+      <c r="X62" s="43"/>
+      <c r="Y62" s="43"/>
+      <c r="Z62" s="44"/>
+      <c r="AA62" s="42">
         <f t="shared" ref="AA62:AA63" si="13">SUM(AA7:AD7,AA9:AD9,AA11:AD11,AA13:AD13,AA15:AD15,AA17:AD17,AA20:AD20,AA22:AD22,AA24:AD24,AA26:AD26,AA28:AD28,AA30:AD30,AA32:AD32,AA35:AD35,AA37:AD37,AA39:AD39,AA41:AD41,AA43:AD43,AA45:AD45,AA47:AD47,AA49:AD49,AA51:AD51,AA53:AD53,AA55:AD55,AA57:AD57)</f>
         <v>8</v>
       </c>
-      <c r="AB62" s="33"/>
-      <c r="AC62" s="33"/>
-      <c r="AD62" s="34"/>
-      <c r="AE62" s="32">
+      <c r="AB62" s="43"/>
+      <c r="AC62" s="43"/>
+      <c r="AD62" s="44"/>
+      <c r="AE62" s="42">
         <f t="shared" ref="AE62:AE63" si="14">SUM(AE7:AH7,AE9:AH9,AE11:AH11,AE13:AH13,AE15:AH15,AE17:AH17,AE20:AH20,AE22:AH22,AE24:AH24,AE26:AH26,AE28:AH28,AE30:AH30,AE32:AH32,AE35:AH35,AE37:AH37,AE39:AH39,AE41:AH41,AE43:AH43,AE45:AH45,AE47:AH47,AE49:AH49,AE51:AH51,AE53:AH53,AE55:AH55,AE57:AH57)</f>
         <v>8</v>
       </c>
-      <c r="AF62" s="33"/>
-      <c r="AG62" s="33"/>
-      <c r="AH62" s="34"/>
-      <c r="AI62" s="32">
+      <c r="AF62" s="43"/>
+      <c r="AG62" s="43"/>
+      <c r="AH62" s="44"/>
+      <c r="AI62" s="42">
         <f t="shared" ref="AI62:AI63" si="15">SUM(AI7:AL7,AI9:AL9,AI11:AL11,AI13:AL13,AI15:AL15,AI17:AL17,AI20:AL20,AI22:AL22,AI24:AL24,AI26:AL26,AI28:AL28,AI30:AL30,AI32:AL32,AI35:AL35,AI37:AL37,AI39:AL39,AI41:AL41,AI43:AL43,AI45:AL45,AI47:AL47,AI49:AL49,AI51:AL51,AI53:AL53,AI55:AL55,AI57:AL57)</f>
         <v>8</v>
       </c>
-      <c r="AJ62" s="33"/>
-      <c r="AK62" s="33"/>
-      <c r="AL62" s="34"/>
-      <c r="AM62" s="32">
+      <c r="AJ62" s="43"/>
+      <c r="AK62" s="43"/>
+      <c r="AL62" s="44"/>
+      <c r="AM62" s="42">
         <f t="shared" ref="AM62:AM63" si="16">SUM(AM7:AP7,AM9:AP9,AM11:AP11,AM13:AP13,AM15:AP15,AM17:AP17,AM20:AP20,AM22:AP22,AM24:AP24,AM26:AP26,AM28:AP28,AM30:AP30,AM32:AP32,AM35:AP35,AM37:AP37,AM39:AP39,AM41:AP41,AM43:AP43,AM45:AP45,AM47:AP47,AM49:AP49,AM51:AP51,AM53:AP53,AM55:AP55,AM57:AP57)</f>
         <v>8</v>
       </c>
-      <c r="AN62" s="33"/>
-      <c r="AO62" s="33"/>
-      <c r="AP62" s="34"/>
-      <c r="AQ62" s="32">
+      <c r="AN62" s="43"/>
+      <c r="AO62" s="43"/>
+      <c r="AP62" s="44"/>
+      <c r="AQ62" s="42">
         <f t="shared" ref="AQ62:AQ63" si="17">SUM(AQ7:AT7,AQ9:AT9,AQ11:AT11,AQ13:AT13,AQ15:AT15,AQ17:AT17,AQ20:AT20,AQ22:AT22,AQ24:AT24,AQ26:AT26,AQ28:AT28,AQ30:AT30,AQ32:AT32,AQ35:AT35,AQ37:AT37,AQ39:AT39,AQ41:AT41,AQ43:AT43,AQ45:AT45,AQ47:AT47,AQ49:AT49,AQ51:AT51,AQ53:AT53,AQ55:AT55,AQ57:AT57)</f>
         <v>8</v>
       </c>
-      <c r="AR62" s="33"/>
-      <c r="AS62" s="33"/>
-      <c r="AT62" s="34"/>
-    </row>
-    <row r="63" spans="3:46" x14ac:dyDescent="0.3">
+      <c r="AR62" s="43"/>
+      <c r="AS62" s="43"/>
+      <c r="AT62" s="44"/>
+    </row>
+    <row r="63" spans="3:46" x14ac:dyDescent="0.35">
       <c r="C63" s="6" t="s">
         <v>42</v>
       </c>
@@ -4090,146 +4095,162 @@
         <v>80</v>
       </c>
       <c r="F63" s="8"/>
-      <c r="G63" s="32">
+      <c r="G63" s="42">
         <f>SUM(G8:J8,G10:J10,G12:J12,G14:J14,G16:J16,G18:J18,G21:J21,G23:J23,G25:J25,G27:J27,G29:J29,G31:J31,G33:J33,G36:J36,G38:J38,G40:J40,G42:J42,G44:J44,G46:J46,G48:J48,G50:J50,G52:J52,G54:J54,G56:J56,G58:J58)</f>
         <v>8</v>
       </c>
-      <c r="H63" s="33"/>
-      <c r="I63" s="33"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="32">
+      <c r="H63" s="43"/>
+      <c r="I63" s="43"/>
+      <c r="J63" s="44"/>
+      <c r="K63" s="42">
         <f>SUM(K8:N8,K10:N10,K12:N12,K14:N14,K16:N16,K18:N18,K21:N21,K23:N23,K25:N25,K27:N27,K29:N29,K31:N31,K33:N33,K36:N36,K38:N38,K40:N40,K42:N42,K44:N44,K46:N46,K48:N48,K50:N50,K52:N52,K54:N54,K56:N56,K58:N58)</f>
         <v>8</v>
       </c>
-      <c r="L63" s="33"/>
-      <c r="M63" s="33"/>
-      <c r="N63" s="34"/>
-      <c r="O63" s="32">
+      <c r="L63" s="43"/>
+      <c r="M63" s="43"/>
+      <c r="N63" s="44"/>
+      <c r="O63" s="42">
         <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="P63" s="33"/>
-      <c r="Q63" s="33"/>
-      <c r="R63" s="34"/>
-      <c r="S63" s="32">
+      <c r="P63" s="43"/>
+      <c r="Q63" s="43"/>
+      <c r="R63" s="44"/>
+      <c r="S63" s="42">
         <f>SUM(S8:V8,S10:V10,S12:V12,S14:V14,S16:V16,S18:V18,S21:V21,S23:V23,S25:V25,S27:V27,S29:V29,S31:V31,S33:V33,S36:V36,S38:V38,S40:V40,S42:V42,S44:V44,S46:V46,S48:V48,S50:V50,S52:V52,S54:V54,S56:V56,S58:V58)</f>
         <v>8</v>
       </c>
-      <c r="T63" s="33"/>
-      <c r="U63" s="33"/>
-      <c r="V63" s="34"/>
-      <c r="W63" s="32">
+      <c r="T63" s="43"/>
+      <c r="U63" s="43"/>
+      <c r="V63" s="44"/>
+      <c r="W63" s="42">
         <f>SUM(W8:Z8,W10:Z10,W12:Z12,W14:Z14,W16:Z16,W18:Z18,W21:Z21,W23:Z23,W25:Z25,W27:Z27,W29:Z29,W31:Z31,W33:Z33,W36:Z36,W38:Z38,W40:Z40,W42:Z42,W44:Z44,W46:Z46,W48:Z48,W50:Z50,W52:Z52,W54:Z54,W56:Z56,W58:Z58)</f>
         <v>8</v>
       </c>
-      <c r="X63" s="33"/>
-      <c r="Y63" s="33"/>
-      <c r="Z63" s="34"/>
-      <c r="AA63" s="32">
+      <c r="X63" s="43"/>
+      <c r="Y63" s="43"/>
+      <c r="Z63" s="44"/>
+      <c r="AA63" s="42">
         <f t="shared" si="13"/>
         <v>8</v>
       </c>
-      <c r="AB63" s="33"/>
-      <c r="AC63" s="33"/>
-      <c r="AD63" s="34"/>
-      <c r="AE63" s="32">
+      <c r="AB63" s="43"/>
+      <c r="AC63" s="43"/>
+      <c r="AD63" s="44"/>
+      <c r="AE63" s="42">
         <f t="shared" si="14"/>
         <v>8</v>
       </c>
-      <c r="AF63" s="33"/>
-      <c r="AG63" s="33"/>
-      <c r="AH63" s="34"/>
-      <c r="AI63" s="32">
+      <c r="AF63" s="43"/>
+      <c r="AG63" s="43"/>
+      <c r="AH63" s="44"/>
+      <c r="AI63" s="42">
         <f t="shared" si="15"/>
         <v>8</v>
       </c>
-      <c r="AJ63" s="33"/>
-      <c r="AK63" s="33"/>
-      <c r="AL63" s="34"/>
-      <c r="AM63" s="32">
+      <c r="AJ63" s="43"/>
+      <c r="AK63" s="43"/>
+      <c r="AL63" s="44"/>
+      <c r="AM63" s="42">
         <f t="shared" si="16"/>
         <v>8</v>
       </c>
-      <c r="AN63" s="33"/>
-      <c r="AO63" s="33"/>
-      <c r="AP63" s="34"/>
-      <c r="AQ63" s="32">
+      <c r="AN63" s="43"/>
+      <c r="AO63" s="43"/>
+      <c r="AP63" s="44"/>
+      <c r="AQ63" s="42">
         <f t="shared" si="17"/>
         <v>8</v>
       </c>
-      <c r="AR63" s="33"/>
-      <c r="AS63" s="33"/>
-      <c r="AT63" s="34"/>
-    </row>
-    <row r="64" spans="3:46" x14ac:dyDescent="0.3">
+      <c r="AR63" s="43"/>
+      <c r="AS63" s="43"/>
+      <c r="AT63" s="44"/>
+    </row>
+    <row r="64" spans="3:46" x14ac:dyDescent="0.35">
       <c r="C64" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D64" s="35">
+      <c r="D64" s="45">
         <f>D62-E63</f>
         <v>0</v>
       </c>
-      <c r="E64" s="36"/>
+      <c r="E64" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="154">
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="AA4:AD4"/>
-    <mergeCell ref="AE4:AH4"/>
-    <mergeCell ref="AI4:AL4"/>
-    <mergeCell ref="AM4:AP4"/>
-    <mergeCell ref="AQ4:AT4"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AQ5:AR5"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="AE63:AH63"/>
+    <mergeCell ref="AI63:AL63"/>
+    <mergeCell ref="AM63:AP63"/>
+    <mergeCell ref="AQ63:AT63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="AE62:AH62"/>
+    <mergeCell ref="AI62:AL62"/>
+    <mergeCell ref="AM62:AP62"/>
+    <mergeCell ref="AQ62:AT62"/>
+    <mergeCell ref="G63:J63"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="O63:R63"/>
+    <mergeCell ref="S63:V63"/>
+    <mergeCell ref="W63:Z63"/>
+    <mergeCell ref="AA63:AD63"/>
+    <mergeCell ref="G62:J62"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="O62:R62"/>
+    <mergeCell ref="S62:V62"/>
+    <mergeCell ref="W62:Z62"/>
+    <mergeCell ref="AA62:AD62"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="E20:E21"/>
@@ -4254,79 +4275,63 @@
     <mergeCell ref="F32:F33"/>
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="AE63:AH63"/>
-    <mergeCell ref="AI63:AL63"/>
-    <mergeCell ref="AM63:AP63"/>
-    <mergeCell ref="AQ63:AT63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="AE62:AH62"/>
-    <mergeCell ref="AI62:AL62"/>
-    <mergeCell ref="AM62:AP62"/>
-    <mergeCell ref="AQ62:AT62"/>
-    <mergeCell ref="G63:J63"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="O63:R63"/>
-    <mergeCell ref="S63:V63"/>
-    <mergeCell ref="W63:Z63"/>
-    <mergeCell ref="AA63:AD63"/>
-    <mergeCell ref="G62:J62"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="O62:R62"/>
-    <mergeCell ref="S62:V62"/>
-    <mergeCell ref="W62:Z62"/>
-    <mergeCell ref="AA62:AD62"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="AM4:AP4"/>
+    <mergeCell ref="AQ4:AT4"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="AA4:AD4"/>
+    <mergeCell ref="AE4:AH4"/>
+    <mergeCell ref="AI4:AL4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
